--- a/Modelagens/fisico.xlsx
+++ b/Modelagens/fisico.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47504029823\Desktop\SpMed\Modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55244C5B-BE14-4457-BEF9-9500E03020B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672BCB16-6C99-4353-96BD-B71B48D17AA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8724" windowHeight="8640" xr2:uid="{13CB13BF-EFFF-49A1-83CE-5AC2C389C66E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Modelo Fisico" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="115">
   <si>
     <t>TipoUsuario</t>
   </si>
@@ -319,13 +319,64 @@
   </si>
   <si>
     <t>1/20/20 15:00</t>
+  </si>
+  <si>
+    <t>Consulta Cancelada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>Paciente com dores na garganta</t>
+  </si>
+  <si>
+    <t>paciente com sintomas de ansiedade</t>
+  </si>
+  <si>
+    <t>Paciente com sintoma de depressão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consulta cancelada </t>
+  </si>
+  <si>
+    <t>Clinica</t>
+  </si>
+  <si>
+    <t>Nome_Fantasia</t>
+  </si>
+  <si>
+    <t>RazaoSocial</t>
+  </si>
+  <si>
+    <t>CNPJ</t>
+  </si>
+  <si>
+    <t>HorariodeFuncionamento</t>
+  </si>
+  <si>
+    <t>Clinica Possarle</t>
+  </si>
+  <si>
+    <t>86.400.902/0001-30</t>
+  </si>
+  <si>
+    <t>SP Medical Group</t>
+  </si>
+  <si>
+    <t>Av. Barão Limeira, 532, São Paulo, SP</t>
+  </si>
+  <si>
+    <t>Das 8:00hrs até as 20:00hrs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,19 +399,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,8 +520,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -484,27 +565,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -515,71 +581,86 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -590,9 +671,14 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FF99FF99"/>
+      <color rgb="FF66FF66"/>
+      <color rgb="FFCC00CC"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFFF5050"/>
       <color rgb="FFFF66FF"/>
       <color rgb="FFFF00FF"/>
-      <color rgb="FFCC00CC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -908,8 +994,8 @@
   </sheetPr>
   <dimension ref="B3:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -922,365 +1008,365 @@
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="K3" s="4" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="K3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="17">
+      <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="12">
         <v>4</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="12">
         <v>94839859000</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>1</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>2</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="5">
         <v>1234</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="17">
+      <c r="B6" s="12">
         <v>2</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="12">
         <v>5</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="12">
         <v>73556944057</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>2</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>2</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>1234</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="17">
-        <v>3</v>
-      </c>
-      <c r="C7" s="17">
+      <c r="B7" s="12">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12">
         <v>6</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="13">
         <v>28773</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="12">
         <v>16839338002</v>
       </c>
-      <c r="K7" s="6">
-        <v>3</v>
-      </c>
-      <c r="L7" s="6">
+      <c r="K7" s="5">
+        <v>3</v>
+      </c>
+      <c r="L7" s="5">
         <v>2</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <v>1234</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="17">
+      <c r="B8" s="12">
         <v>4</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="12">
         <v>7</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="12">
         <v>14332654765</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>4</v>
       </c>
-      <c r="L8" s="6">
-        <v>3</v>
-      </c>
-      <c r="M8" s="6" t="s">
+      <c r="L8" s="5">
+        <v>3</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>1234</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="17">
+      <c r="B9" s="12">
         <v>5</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="12">
         <v>8</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="12">
         <v>91305348010</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>5</v>
       </c>
-      <c r="L9" s="6">
-        <v>3</v>
-      </c>
-      <c r="M9" s="6" t="s">
+      <c r="L9" s="5">
+        <v>3</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <v>1234</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="17">
+      <c r="B10" s="12">
         <v>6</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="12">
         <v>9</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="12">
         <v>79799299004</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>6</v>
       </c>
-      <c r="L10" s="6">
-        <v>3</v>
-      </c>
-      <c r="M10" s="6" t="s">
+      <c r="L10" s="5">
+        <v>3</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="5">
         <v>1234</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="17">
+      <c r="B11" s="12">
         <v>7</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="12">
         <v>10</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18">
+      <c r="D11" s="12"/>
+      <c r="E11" s="13">
         <v>43223</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="12">
         <v>13771913039</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>7</v>
       </c>
-      <c r="L11" s="6">
-        <v>3</v>
-      </c>
-      <c r="M11" s="6" t="s">
+      <c r="L11" s="5">
+        <v>3</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="5">
         <v>1234</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>8</v>
       </c>
-      <c r="L12" s="6">
-        <v>3</v>
-      </c>
-      <c r="M12" s="6" t="s">
+      <c r="L12" s="5">
+        <v>3</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="5">
         <v>1234</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F13" s="12"/>
-      <c r="K13" s="6">
+      <c r="F13" s="8"/>
+      <c r="K13" s="5">
         <v>9</v>
       </c>
-      <c r="L13" s="6">
-        <v>3</v>
-      </c>
-      <c r="M13" s="6" t="s">
+      <c r="L13" s="5">
+        <v>3</v>
+      </c>
+      <c r="M13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="5">
         <v>1234</v>
       </c>
     </row>
@@ -1289,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <v>10</v>
       </c>
-      <c r="L14" s="6">
-        <v>3</v>
-      </c>
-      <c r="M14" s="6" t="s">
+      <c r="L14" s="5">
+        <v>3</v>
+      </c>
+      <c r="M14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <v>1234</v>
       </c>
     </row>
@@ -1337,398 +1423,527 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G19" s="22" t="s">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G19" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="J19" t="s">
+      <c r="H19" s="25"/>
+      <c r="J19" s="29" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G20" s="23" t="s">
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="G20" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="O20" s="9" t="s">
+      <c r="O20" s="23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="G21" s="24">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="G21" s="17">
         <v>1</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="21">
         <v>1</v>
       </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="O21" s="10" t="s">
+      <c r="K21" s="21">
+        <v>3</v>
+      </c>
+      <c r="L21" s="21">
+        <v>7</v>
+      </c>
+      <c r="M21" s="21">
+        <v>1</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="O21" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="14" t="s">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="17">
         <v>2</v>
       </c>
-      <c r="H22" s="24" t="s">
+      <c r="H22" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="21">
         <v>2</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="21">
         <v>2</v>
       </c>
-      <c r="O22" s="25">
+      <c r="L22" s="21">
+        <v>2</v>
+      </c>
+      <c r="M22" s="21">
+        <v>2</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="O22" s="22">
         <v>43983.416666666664</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="10">
         <v>1</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="10">
         <v>1</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="10">
         <v>1</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="24">
-        <v>3</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="J23">
-        <v>3</v>
-      </c>
-      <c r="K23">
+      <c r="G23" s="17">
+        <v>3</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" s="21">
+        <v>3</v>
+      </c>
+      <c r="K23" s="21">
         <v>2</v>
       </c>
-      <c r="O23" s="25">
+      <c r="L23" s="21">
+        <v>3</v>
+      </c>
+      <c r="M23" s="21">
+        <v>1</v>
+      </c>
+      <c r="N23" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="O23" s="22">
         <v>44014.458333333336</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="10">
         <v>2</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="10">
         <v>2</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="10">
         <v>1</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="24">
+      <c r="F24" s="19"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="J24" s="21">
         <v>4</v>
       </c>
-      <c r="H24" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="J24">
+      <c r="K24" s="21">
+        <v>2</v>
+      </c>
+      <c r="L24" s="21">
+        <v>2</v>
+      </c>
+      <c r="M24" s="21">
+        <v>1</v>
+      </c>
+      <c r="N24" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="O24" s="22">
+        <v>43253.416666666664</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="10">
+        <v>3</v>
+      </c>
+      <c r="C25" s="10">
+        <v>3</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="J25" s="21">
+        <v>5</v>
+      </c>
+      <c r="K25" s="21">
+        <v>1</v>
+      </c>
+      <c r="L25" s="21">
+        <v>5</v>
+      </c>
+      <c r="M25" s="21">
+        <v>2</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="O25" s="22">
+        <v>43648.458333333336</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F26" s="19"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="J26" s="21">
+        <v>6</v>
+      </c>
+      <c r="K26" s="21">
+        <v>3</v>
+      </c>
+      <c r="L26" s="21">
+        <v>6</v>
+      </c>
+      <c r="M26" s="21">
+        <v>3</v>
+      </c>
+      <c r="N26" s="21"/>
+      <c r="O26" s="22">
+        <v>44046.625</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="F27" s="19"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="J27" s="21">
+        <v>7</v>
+      </c>
+      <c r="K27" s="21">
+        <v>1</v>
+      </c>
+      <c r="L27" s="21">
+        <v>7</v>
+      </c>
+      <c r="M27" s="21">
+        <v>3</v>
+      </c>
+      <c r="N27" s="21"/>
+      <c r="O27" s="22">
+        <v>44077.458333333336</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" t="s">
+        <v>100</v>
+      </c>
+      <c r="L29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="15">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="15">
+        <v>2</v>
+      </c>
+      <c r="C31" s="15">
+        <v>1</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J31" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="L31" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="M31" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="N31" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="O31" s="31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="15">
+        <v>3</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J32" s="32">
+        <v>1</v>
+      </c>
+      <c r="K32" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="L32" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="M32" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="N32" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="O32" s="32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="15">
         <v>4</v>
       </c>
-      <c r="K24">
+      <c r="C33" s="15"/>
+      <c r="D33" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="15">
+        <v>5</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="8"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="15">
+        <v>6</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="8"/>
+    </row>
+    <row r="36" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="15">
+        <v>7</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="8"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B37" s="15">
+        <v>8</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B38" s="15">
+        <v>9</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39" s="15">
+        <v>10</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="15">
+        <v>11</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B41" s="15">
+        <v>12</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B42" s="15">
+        <v>13</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B43" s="15">
+        <v>14</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B44" s="15">
+        <v>15</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B45" s="15">
+        <v>16</v>
+      </c>
+      <c r="C45" s="15">
+        <v>3</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="15">
+        <v>17</v>
+      </c>
+      <c r="C46" s="15">
         <v>2</v>
       </c>
-      <c r="O24" s="25">
-        <v>43253.416666666664</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="15">
-        <v>3</v>
-      </c>
-      <c r="C25" s="15">
-        <v>3</v>
-      </c>
-      <c r="D25" s="15">
-        <v>1</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="24">
-        <v>5</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="J25">
-        <v>5</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="O25" s="25">
-        <v>43648.458333333336</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G26" s="24">
-        <v>6</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J26">
-        <v>6</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="O26" s="25">
-        <v>44046.625</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G27" s="24">
-        <v>6</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J27">
-        <v>7</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="O27" s="25">
-        <v>44077.458333333336</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="21">
-        <v>1</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="21">
-        <v>2</v>
-      </c>
-      <c r="C31" s="21">
-        <v>1</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="21">
-        <v>3</v>
-      </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="21">
-        <v>4</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="21">
-        <v>5</v>
-      </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="21">
-        <v>6</v>
-      </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="21">
-        <v>7</v>
-      </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="21">
-        <v>8</v>
-      </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="21">
-        <v>9</v>
-      </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="21">
-        <v>10</v>
-      </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="21">
-        <v>11</v>
-      </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="21">
-        <v>12</v>
-      </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="21">
-        <v>13</v>
-      </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="21">
-        <v>14</v>
-      </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="21">
-        <v>15</v>
-      </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="21">
-        <v>16</v>
-      </c>
-      <c r="C45" s="21">
-        <v>3</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="21">
-        <v>17</v>
-      </c>
-      <c r="C46" s="21">
-        <v>2</v>
-      </c>
-      <c r="D46" s="21" t="s">
+      <c r="D46" s="15" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="J30:O30"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B21:E21"/>
+    <mergeCell ref="J19:O19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N6" r:id="rId1" xr:uid="{FBFEFD0F-56F2-441A-B4B2-1347610FF035}"/>

--- a/Modelagens/fisico.xlsx
+++ b/Modelagens/fisico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\47504029823\Desktop\SpMed\Modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672BCB16-6C99-4353-96BD-B71B48D17AA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF435EB-54B7-4480-8A9D-A4348C078857}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8724" windowHeight="8640" xr2:uid="{13CB13BF-EFFF-49A1-83CE-5AC2C389C66E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="115">
   <si>
     <t>TipoUsuario</t>
   </si>
@@ -635,6 +635,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -651,15 +660,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -994,15 +994,14 @@
   </sheetPr>
   <dimension ref="B3:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.109375" customWidth="1"/>
+    <col min="2" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="66.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -1016,22 +1015,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="K3" s="26" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="K3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
@@ -1375,6 +1374,10 @@
         <v>0</v>
       </c>
       <c r="C14" s="1"/>
+      <c r="G14" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="28"/>
       <c r="K14" s="5">
         <v>10</v>
       </c>
@@ -1398,6 +1401,12 @@
       <c r="C15" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="G15" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
@@ -1406,6 +1415,12 @@
       <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="G16" s="17">
+        <v>1</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
@@ -1414,6 +1429,12 @@
       <c r="C17" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="G17" s="17">
+        <v>2</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
@@ -1422,28 +1443,24 @@
       <c r="C18" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="G18" s="17">
+        <v>3</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="G19" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="25"/>
-      <c r="J19" s="29" t="s">
+      <c r="J19" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="G20" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>89</v>
-      </c>
       <c r="J20" s="20" t="s">
         <v>94</v>
       </c>
@@ -1464,18 +1481,13 @@
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="G21" s="17">
-        <v>1</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>90</v>
-      </c>
+      <c r="B21" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
       <c r="J21" s="21">
         <v>1</v>
       </c>
@@ -1503,16 +1515,13 @@
         <v>6</v>
       </c>
       <c r="D22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="G22" s="17">
-        <v>2</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>91</v>
       </c>
       <c r="J22" s="21">
         <v>2</v>
@@ -1541,16 +1550,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="10">
+        <v>2</v>
+      </c>
+      <c r="E23" s="10">
         <v>1</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="G23" s="17">
-        <v>3</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>92</v>
       </c>
       <c r="J23" s="21">
         <v>3</v>
@@ -1579,12 +1585,14 @@
         <v>2</v>
       </c>
       <c r="D24" s="10">
+        <v>17</v>
+      </c>
+      <c r="E24" s="10">
         <v>1</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="19"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="J24" s="21">
@@ -1614,12 +1622,14 @@
         <v>3</v>
       </c>
       <c r="D25" s="10">
+        <v>16</v>
+      </c>
+      <c r="E25" s="10">
         <v>1</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="19"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="J25" s="21">
@@ -1684,18 +1694,14 @@
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B28" s="24" t="s">
+      <c r="C28" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B29" s="14" t="s">
+      <c r="C29" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>61</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>67</v>
@@ -1708,83 +1714,77 @@
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="15">
+      <c r="C30" s="15">
         <v>1</v>
       </c>
-      <c r="C30" s="15"/>
       <c r="D30" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="J30" s="30" t="s">
+      <c r="J30" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B31" s="15">
+      <c r="C31" s="15">
         <v>2</v>
-      </c>
-      <c r="C31" s="15">
-        <v>1</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="J31" s="31" t="s">
+      <c r="J31" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="K31" s="31" t="s">
+      <c r="K31" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="L31" s="31" t="s">
+      <c r="L31" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="M31" s="31" t="s">
+      <c r="M31" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="N31" s="31" t="s">
+      <c r="N31" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="O31" s="31" t="s">
+      <c r="O31" s="24" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B32" s="15">
-        <v>3</v>
-      </c>
-      <c r="C32" s="15"/>
+      <c r="C32" s="15">
+        <v>3</v>
+      </c>
       <c r="D32" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="J32" s="32">
+      <c r="J32" s="25">
         <v>1</v>
       </c>
-      <c r="K32" s="32" t="s">
+      <c r="K32" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="L32" s="32" t="s">
+      <c r="L32" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="M32" s="32" t="s">
+      <c r="M32" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="N32" s="32" t="s">
+      <c r="N32" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="O32" s="32" t="s">
+      <c r="O32" s="25" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="15">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C33" s="15">
         <v>4</v>
       </c>
-      <c r="C33" s="15"/>
       <c r="D33" s="15" t="s">
         <v>72</v>
       </c>
@@ -1794,11 +1794,10 @@
       <c r="N33" s="18"/>
       <c r="O33" s="8"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="15">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C34" s="15">
         <v>5</v>
       </c>
-      <c r="C34" s="15"/>
       <c r="D34" s="15" t="s">
         <v>73</v>
       </c>
@@ -1808,11 +1807,10 @@
       <c r="N34" s="18"/>
       <c r="O34" s="8"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="15">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C35" s="15">
         <v>6</v>
       </c>
-      <c r="C35" s="15"/>
       <c r="D35" s="15" t="s">
         <v>74</v>
       </c>
@@ -1822,11 +1820,10 @@
       <c r="N35" s="18"/>
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="15">
+    <row r="36" spans="3:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="15">
         <v>7</v>
       </c>
-      <c r="C36" s="15"/>
       <c r="D36" s="15" t="s">
         <v>75</v>
       </c>
@@ -1836,11 +1833,10 @@
       <c r="N36" s="18"/>
       <c r="O36" s="8"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="15">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C37" s="15">
         <v>8</v>
       </c>
-      <c r="C37" s="15"/>
       <c r="D37" s="15" t="s">
         <v>76</v>
       </c>
@@ -1850,86 +1846,73 @@
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="15">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C38" s="15">
         <v>9</v>
       </c>
-      <c r="C38" s="15"/>
       <c r="D38" s="15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="15">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C39" s="15">
         <v>10</v>
       </c>
-      <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="15">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C40" s="15">
         <v>11</v>
       </c>
-      <c r="C40" s="15"/>
       <c r="D40" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="15">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C41" s="15">
         <v>12</v>
       </c>
-      <c r="C41" s="15"/>
       <c r="D41" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="15">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C42" s="15">
         <v>13</v>
       </c>
-      <c r="C42" s="15"/>
       <c r="D42" s="15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="15">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C43" s="15">
         <v>14</v>
       </c>
-      <c r="C43" s="15"/>
       <c r="D43" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="15">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C44" s="15">
         <v>15</v>
       </c>
-      <c r="C44" s="15"/>
       <c r="D44" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="15">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C45" s="15">
         <v>16</v>
-      </c>
-      <c r="C45" s="15">
-        <v>3</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="15">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C46" s="15">
         <v>17</v>
-      </c>
-      <c r="C46" s="15">
-        <v>2</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>85</v>
@@ -1938,12 +1921,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J30:O30"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G14:H14"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B21:E21"/>
     <mergeCell ref="J19:O19"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N6" r:id="rId1" xr:uid="{FBFEFD0F-56F2-441A-B4B2-1347610FF035}"/>
